--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2922807.316099762</v>
+        <v>3030036.757497848</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8527678.915425634</v>
+        <v>8541127.360805277</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>194.3575439093954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>244.2876198546648</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>90.69811547110028</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.333559299821117</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>187.0721973357354</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>8.296101769923409</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>201.950356973252</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>148.9951979492134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>75.63597384092635</v>
       </c>
       <c r="H8" t="n">
-        <v>186.9625385917861</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>52.3447119885119</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.6755714789425</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>89.43475015428525</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>185.6920487814947</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,16 +2241,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>211.147499124903</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>1.799772605716619</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>162.8435308896552</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>12.74007641194068</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>146.6281161973743</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>21.8567702508375</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>30.9719158638759</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>176.8175509096646</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>132.6315337216697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>35.03063761899501</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>33.01627976944152</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>1452.155307492516</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1083.192790552104</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>724.9270919453541</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>724.9270919453541</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>313.9411871557465</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4328,25 +4330,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>2106.838515435611</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1716.6991834598</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,28 +4409,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.9138669598622</v>
+        <v>644.9053651971361</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9776840319553</v>
+        <v>644.9053651971361</v>
       </c>
       <c r="D4" t="n">
-        <v>142.8610446196195</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4513,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1633.078888458516</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1633.078888458516</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1343.960550962354</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1343.960550962354</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.344461831649</v>
+        <v>1054.543380925393</v>
       </c>
       <c r="X4" t="n">
-        <v>864.354910933632</v>
+        <v>826.5538300273759</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901019</v>
+        <v>826.5538300273759</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855438</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150261</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="D5" t="n">
-        <v>942.9472709150261</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="E5" t="n">
-        <v>942.9472709150261</v>
+        <v>1026.346145500897</v>
       </c>
       <c r="F5" t="n">
-        <v>531.9613661254186</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>116.8889159704151</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>599.4122767260735</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775.7875500159902</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>775.7875500159902</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>625.6709106036544</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1501.537673089078</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1246.853184883191</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W7" t="n">
-        <v>957.4360148462299</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X7" t="n">
-        <v>957.4360148462299</v>
+        <v>419.9524592939263</v>
       </c>
       <c r="Y7" t="n">
-        <v>957.4360148462299</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.169188758594</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.206671818182</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="D8" t="n">
-        <v>1509.206671818182</v>
+        <v>890.8133066586854</v>
       </c>
       <c r="E8" t="n">
-        <v>1123.418419219938</v>
+        <v>505.0250540604412</v>
       </c>
       <c r="F8" t="n">
-        <v>712.4325144303305</v>
+        <v>498.0795533112377</v>
       </c>
       <c r="G8" t="n">
-        <v>297.3600642753269</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1249.079005265436</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>529.5785797246257</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>360.6423967967187</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>399.7490786554496</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>252.8591311575392</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>252.8591311575392</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>104.1202330210454</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>554.5033994003252</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.5785797246257</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5036,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5051,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096652</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5266,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="E16" t="n">
         <v>549.6145409888043</v>
@@ -5437,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2259.395357538347</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1970.320130882545</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1715.635642676658</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.22892174168</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5746,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,10 +5788,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5519571452613</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969311</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6066,7 +6068,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
         <v>577.3880777468471</v>
@@ -6075,19 +6077,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6303,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>789.7592298206044</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926976</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803618</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>971.4076946508442</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836018</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556949</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433592</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>415.5933575433592</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>415.5933575433592</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>248.3972582582391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>106.6854271004372</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2298.853875300085</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2079.252410323026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1790.177183667224</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1535.492695461337</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1246.075525424376</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6716,22 +6718,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3045.561952449534</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>3023.484406741617</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741617</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053499</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.37685307644</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420638</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.617138214751</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.199968177791</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3227.210417279774</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6925,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7026,13 +7028,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7175,28 +7177,28 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>782.841029837709</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2018.458958710129</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1729.383732054326</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1474.699243848439</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1185.282073811479</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1185.282073811479</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.4894946679487</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7494,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3227.225672628158</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>3058.289489700251</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>2908.172850287915</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>2760.259756705522</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>2613.369809207612</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024107</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4690.833152398594</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4690.833152398594</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>4401.757925742792</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>4147.073437536906</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>3857.656267499945</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X43" t="n">
-        <v>3629.666716601928</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y43" t="n">
-        <v>3408.874137458398</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="44">
@@ -7646,31 +7648,31 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7734,7 +7736,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424045</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>376.4492432300688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>376.4492432300688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>376.4492432300688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>209.2531439449487</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.9393975111056</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>231.2582814363241</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.454437538929881</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>56.99921249228392</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>31.71340154579357</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>16.31315520054599</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24178,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>75.03697526434112</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>143.6212754172146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>55.74112246243959</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.52575990662484</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>34.39816980427031</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.3900508477903</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>115.4620467826933</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>35.40333084624564</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>40.58789941762367</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>32.89260457059919</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>251.492360717596</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.2784330767823</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>753387.2334592879</v>
+        <v>753387.233459288</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>746256.9204580029</v>
+        <v>753387.2334592879</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>746256.9204580029</v>
+        <v>753387.2334592879</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011535</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846411</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>686074.6097365052</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="L2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365055</v>
@@ -26350,10 +26352,10 @@
         <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>3.310606189188547e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808325</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808327</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732041</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26442,19 +26444,19 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731976</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731942</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-644122.0518929871</v>
       </c>
       <c r="C6" t="n">
-        <v>299208.4750130584</v>
+        <v>470629.7316829322</v>
       </c>
       <c r="D6" t="n">
-        <v>502647.2166251641</v>
+        <v>470629.7316829322</v>
       </c>
       <c r="E6" t="n">
-        <v>251422.3056785113</v>
+        <v>69349.32586132061</v>
       </c>
       <c r="F6" t="n">
+        <v>576834.7674858667</v>
+      </c>
+      <c r="G6" t="n">
+        <v>576834.7674858664</v>
+      </c>
+      <c r="H6" t="n">
+        <v>576834.7674858663</v>
+      </c>
+      <c r="I6" t="n">
         <v>576834.7674858668</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>409229.5896758835</v>
+      </c>
+      <c r="K6" t="n">
+        <v>576834.7674858663</v>
+      </c>
+      <c r="L6" t="n">
+        <v>576834.7674858664</v>
+      </c>
+      <c r="M6" t="n">
+        <v>444227.4737569398</v>
+      </c>
+      <c r="N6" t="n">
+        <v>576834.7674858667</v>
+      </c>
+      <c r="O6" t="n">
+        <v>576834.7674858668</v>
+      </c>
+      <c r="P6" t="n">
         <v>576834.7674858669</v>
-      </c>
-      <c r="H6" t="n">
-        <v>576834.7674858668</v>
-      </c>
-      <c r="I6" t="n">
-        <v>576834.7674858667</v>
-      </c>
-      <c r="J6" t="n">
-        <v>409229.5896758839</v>
-      </c>
-      <c r="K6" t="n">
-        <v>527724.674779812</v>
-      </c>
-      <c r="L6" t="n">
-        <v>576834.7674858668</v>
-      </c>
-      <c r="M6" t="n">
-        <v>491779.7395503547</v>
-      </c>
-      <c r="N6" t="n">
-        <v>576834.7674858666</v>
-      </c>
-      <c r="O6" t="n">
-        <v>576834.7674858663</v>
-      </c>
-      <c r="P6" t="n">
-        <v>576834.7674858666</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26819,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27012,13 +27014,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27260,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>217.1901588635585</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>125.4434808238043</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>55.73584717546889</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,16 +27587,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>191.3289010619164</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>219.8038484059761</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.3116626173971</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>84.26148123236092</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>76.71445743982375</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>335.9117289320276</v>
       </c>
       <c r="H8" t="n">
-        <v>107.6452257955343</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>52.45188321538866</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.9090818731523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -30034,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>233.3139244897912</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202621</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>409.0029787211726</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>248.0319961154042</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>620.1193660647502</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>333.9544784328822</v>
+        <v>164.9290651940696</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>171.7382405950817</v>
+        <v>391.9250669264629</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673334</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>332.9841464938401</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189577</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34454,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868572</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>436.6197581489557</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>622.455381029198</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34799,7 +34801,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>304.13479817678</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>94.75954470991702</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396436</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>508.510055302383</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342406</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991542</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902957</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427319</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>191.3582339884378</v>
+        <v>22.33282074962517</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>37.7638331807514</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36911,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531504</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0097390795098</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969394</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648388</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3030036.757497848</v>
+        <v>3025899.600247696</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>323.2089455705997</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>194.3575439093954</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3.333559299821117</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.0721973357354</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>88.64760870143482</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>148.9951979492134</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>75.63597384092635</v>
+        <v>179.7446966401327</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,13 +1192,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>156.6992473351568</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>52.3447119885119</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>129.5380597272477</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>36.43062059490413</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>89.43475015428525</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>130.1208074460232</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2247,10 +2247,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>211.147499124903</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>253.2918698186439</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>78.91051008678147</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.8435308896552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>43.34824157861021</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>146.6281161973743</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>28.75188085812095</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>30.9719158638759</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000794</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>35.03063761899501</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452.155307492516</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="C2" t="n">
-        <v>1083.192790552104</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="D2" t="n">
-        <v>724.9270919453541</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="E2" t="n">
-        <v>724.9270919453541</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>313.9411871557465</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,25 +4330,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4363,19 +4363,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.89447953245</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.755147556638</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>644.9053651971361</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>644.9053651971361</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1633.078888458516</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1633.078888458516</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1343.960550962354</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1343.960550962354</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.543380925393</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>826.5538300273759</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>826.5538300273759</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099142</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="C5" t="n">
-        <v>1412.134398099142</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="D5" t="n">
-        <v>1412.134398099142</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>1026.346145500897</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2348.097081834267</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2094.516021098447</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2094.516021098447</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>2094.516021098447</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139075</v>
+        <v>1721.050262837367</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163263</v>
+        <v>1330.910930861555</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>599.4122767260735</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1598801503962</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1598801503962</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426267</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W7" t="n">
-        <v>570.4526592426267</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>419.9524592939263</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.1598801503962</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.079005265436</v>
+        <v>1029.581243592353</v>
       </c>
       <c r="C8" t="n">
-        <v>1249.079005265436</v>
+        <v>1029.581243592353</v>
       </c>
       <c r="D8" t="n">
-        <v>890.8133066586854</v>
+        <v>1029.581243592353</v>
       </c>
       <c r="E8" t="n">
-        <v>505.0250540604412</v>
+        <v>643.7929909941083</v>
       </c>
       <c r="F8" t="n">
-        <v>498.0795533112377</v>
+        <v>232.8070862045008</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>1622.544763526516</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>1249.079005265436</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.079005265436</v>
+        <v>1416.181083656474</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919907</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>972.123616140353</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>803.1874332124461</v>
       </c>
       <c r="D10" t="n">
-        <v>547.6621722378427</v>
+        <v>653.0707938001103</v>
       </c>
       <c r="E10" t="n">
-        <v>399.7490786554496</v>
+        <v>505.1577002177172</v>
       </c>
       <c r="F10" t="n">
-        <v>252.8591311575392</v>
+        <v>358.2677527198068</v>
       </c>
       <c r="G10" t="n">
-        <v>252.8591311575392</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>104.1202330210454</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>1153.772080970593</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,46 +5260,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5357,7 +5357,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5366,19 +5366,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143764</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2297.690135143764</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,22 +5506,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5594,7 +5594,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5603,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,55 +5749,55 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756265</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969311</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2380.852671620012</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U22" t="n">
-        <v>1983.7822433412</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6004,13 +6004,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,13 +6062,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
         <v>577.3880777468471</v>
@@ -6077,16 +6077,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2191.112710026075</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V25" t="n">
-        <v>1936.428221820188</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6244,10 +6244,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6305,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143764</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206044</v>
+        <v>733.455065717131</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926976</v>
+        <v>564.5188827892241</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803618</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979687</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508442</v>
+        <v>915.1035305473707</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>615.644930552589</v>
+        <v>768.5380889459591</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>599.6019060180522</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2298.853875300085</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2079.252410323026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1790.177183667224</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1535.492695461337</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1246.075525424376</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>1018.085974526359</v>
+        <v>1170.979132919729</v>
       </c>
       <c r="Y31" t="n">
-        <v>797.2933953828287</v>
+        <v>950.1865537761988</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6955,10 +6955,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
         <v>1072.713683962606</v>
@@ -7028,13 +7028,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7089,58 +7089,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7499,19 +7499,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1465.362586952987</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1237.37303605497</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1016.58045691144</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363241</v>
+        <v>186.5911984019045</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>6.454437538929881</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>240.4465442417438</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111053</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>110.003342051665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>56.99921249228392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>16.31315520054599</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>75.03697526434112</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>32.89260457060021</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>69.70496293143088</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>55.74112246243959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>105.2672314396021</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.39816980427031</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>115.4620467826933</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>35.40333084624564</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891647</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>251.492360717596</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>753387.2334592879</v>
+        <v>753387.233459288</v>
       </c>
     </row>
     <row r="4">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>733751.2673011535</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365052</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099829</v>
       </c>
       <c r="K3" t="n">
-        <v>3.310606189188547e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732015</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732041</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
+        <v>8117.312426731938</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8117.312426731928</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426731928</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8117.312426731975</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426732015</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26496,10 +26496,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-644122.0518929871</v>
+        <v>-644122.0518929872</v>
       </c>
       <c r="C6" t="n">
         <v>470629.7316829322</v>
       </c>
       <c r="D6" t="n">
-        <v>470629.7316829322</v>
+        <v>470629.731682932</v>
       </c>
       <c r="E6" t="n">
-        <v>69349.32586132061</v>
+        <v>69001.94660696357</v>
       </c>
       <c r="F6" t="n">
-        <v>576834.7674858667</v>
+        <v>576487.3882315096</v>
       </c>
       <c r="G6" t="n">
-        <v>576834.7674858664</v>
+        <v>576487.3882315095</v>
       </c>
       <c r="H6" t="n">
-        <v>576834.7674858663</v>
+        <v>576487.3882315096</v>
       </c>
       <c r="I6" t="n">
-        <v>576834.7674858668</v>
+        <v>576487.3882315097</v>
       </c>
       <c r="J6" t="n">
-        <v>409229.5896758835</v>
+        <v>408882.2104215265</v>
       </c>
       <c r="K6" t="n">
-        <v>576834.7674858663</v>
+        <v>576487.3882315096</v>
       </c>
       <c r="L6" t="n">
-        <v>576834.7674858664</v>
+        <v>576487.3882315095</v>
       </c>
       <c r="M6" t="n">
-        <v>444227.4737569398</v>
+        <v>443880.094502583</v>
       </c>
       <c r="N6" t="n">
-        <v>576834.7674858667</v>
+        <v>576487.3882315096</v>
       </c>
       <c r="O6" t="n">
-        <v>576834.7674858668</v>
+        <v>576487.3882315099</v>
       </c>
       <c r="P6" t="n">
-        <v>576834.7674858669</v>
+        <v>576487.3882315096</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>58.72142450166206</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>217.1901588635585</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,16 +27587,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>191.3289010619164</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.8038484059761</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>118.0105762787989</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>80.94049690661316</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>76.71445743982375</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>335.9117289320276</v>
+        <v>231.8030061328213</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>9.607352709647387</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>52.45188321538866</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>360.9226811202621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>409.0029787211726</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,13 +32338,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647502</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,37 +32788,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940696</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P27" t="n">
-        <v>391.9250669264629</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817556</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,28 +34450,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34783,13 +34783,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>622.455381029198</v>
+        <v>577.7882979947784</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>304.13479817678</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>490.1260733652761</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419598</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>220.9409070342406</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>266.8689447991542</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902957</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427319</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962517</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>29.46586643587134</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3025899.600247696</v>
+        <v>3027660.130550482</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8541127.360805277</v>
+        <v>8541127.360805275</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>323.2089455705997</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>52.30544655012559</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>50.98074812542808</v>
+        <v>115.6867193786438</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>27.93741639685949</v>
       </c>
       <c r="T5" t="n">
-        <v>88.64760870143482</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>24.55276019063715</v>
       </c>
       <c r="V7" t="n">
-        <v>171.1971464172148</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>179.7446966401327</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>239.6624903198213</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>156.6992473351568</v>
+        <v>17.42775815369464</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.5380597272477</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.44930784064577</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>82.52140782073276</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>78.91051008678147</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>43.34824157861021</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>65.78783178799286</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812095</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>113.6427030833203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4312,19 +4312,19 @@
         <v>1270.784773191979</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.784773191979</v>
+        <v>912.5190745852283</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974335</v>
+        <v>526.730821986984</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>115.7449171973764</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>104.0805709620694</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>104.0805709620694</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4333,10 +4333,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4412,19 +4412,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.1026499885492</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>1584.950414897297</v>
+        <v>708.2818753488734</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>708.2818753488734</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>708.2818753488734</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>487.4892962053433</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.3110907974335</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="C5" t="n">
-        <v>944.3110907974335</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>877.9374416333218</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2534.119715878073</v>
       </c>
       <c r="T5" t="n">
-        <v>2348.097081834267</v>
+        <v>2325.374074483898</v>
       </c>
       <c r="U5" t="n">
-        <v>2094.516021098447</v>
+        <v>2325.374074483898</v>
       </c>
       <c r="V5" t="n">
-        <v>2094.516021098447</v>
+        <v>1994.311187140327</v>
       </c>
       <c r="W5" t="n">
-        <v>2094.516021098447</v>
+        <v>1641.542531870213</v>
       </c>
       <c r="X5" t="n">
-        <v>1721.050262837367</v>
+        <v>1268.076773609133</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.910930861555</v>
+        <v>877.9374416333218</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800307</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312192</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1611.645352205167</v>
       </c>
       <c r="V7" t="n">
-        <v>1463.519709552058</v>
+        <v>1356.96086399928</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1029.581243592353</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C8" t="n">
-        <v>1029.581243592353</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D8" t="n">
-        <v>1029.581243592353</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>643.7929909941083</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>232.8070862045008</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2320.25600484478</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>1989.19311750121</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656474</v>
+        <v>1636.424462231096</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.181083656474</v>
+        <v>1636.424462231096</v>
       </c>
       <c r="Y8" t="n">
-        <v>1416.181083656474</v>
+        <v>1246.285130255284</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,25 +4880,25 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
         <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>972.123616140353</v>
+        <v>682.7064461033923</v>
       </c>
       <c r="C10" t="n">
-        <v>803.1874332124461</v>
+        <v>513.7702631754854</v>
       </c>
       <c r="D10" t="n">
-        <v>653.0707938001103</v>
+        <v>363.6536237631497</v>
       </c>
       <c r="E10" t="n">
-        <v>505.1577002177172</v>
+        <v>215.7405301807565</v>
       </c>
       <c r="F10" t="n">
-        <v>358.2677527198068</v>
+        <v>68.85058268284618</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -5001,13 +5001,13 @@
         <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1381.76163186861</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>1153.772080970593</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>1153.772080970593</v>
+        <v>864.354910933632</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5132,13 +5132,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,22 +5260,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5284,13 +5284,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5320,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5427,10 +5427,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,10 +5983,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>719.5738700011939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1894.106123115829</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1639.421634909942</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1350.004464872981</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1122.014913974964</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.2223348314336</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.455065717131</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892241</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831766</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625879</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588918</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.896109690901</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473707</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,43 +6472,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
         <v>1072.713683962606</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459591</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180522</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2380.510728238854</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.655893893758</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919729</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761988</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,64 +6688,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
         <v>1072.713683962606</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7019,7 +7019,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
         <v>1072.713683962606</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7256,7 +7256,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
         <v>1072.713683962606</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,43 +7390,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>186.5911984019045</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>240.4465442417438</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>69.70496293143088</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>105.2672314396021</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.5874149221288292</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.97276993489203</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>753387.2334592879</v>
+        <v>753387.233459288</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>733751.2673011533</v>
+        <v>733751.2673011534</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>733751.2673011534</v>
+        <v>733751.2673011533</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846405</v>
@@ -26331,28 +26331,28 @@
         <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365055</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.412581696058623e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099829</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,22 +26432,22 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732028</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732038</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731938</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731928</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731928</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984467</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26496,10 +26496,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-644122.0518929872</v>
       </c>
       <c r="C6" t="n">
-        <v>470629.7316829322</v>
+        <v>470629.7316829325</v>
       </c>
       <c r="D6" t="n">
         <v>470629.731682932</v>
       </c>
       <c r="E6" t="n">
-        <v>69001.94660696357</v>
+        <v>69314.58793588486</v>
       </c>
       <c r="F6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="G6" t="n">
-        <v>576487.3882315095</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="H6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="I6" t="n">
-        <v>576487.3882315097</v>
+        <v>576800.029560431</v>
       </c>
       <c r="J6" t="n">
-        <v>408882.2104215265</v>
+        <v>409194.8517504483</v>
       </c>
       <c r="K6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.029560431</v>
       </c>
       <c r="L6" t="n">
-        <v>576487.3882315095</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="M6" t="n">
-        <v>443880.094502583</v>
+        <v>444192.7358315039</v>
       </c>
       <c r="N6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.0295604309</v>
       </c>
       <c r="O6" t="n">
-        <v>576487.3882315099</v>
+        <v>576800.029560431</v>
       </c>
       <c r="P6" t="n">
-        <v>576487.3882315096</v>
+        <v>576800.029560431</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
+        <v>640.5848321000384</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,10 +26816,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58.72142450166206</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>13.40446612234491</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.1568951983999</v>
+        <v>136.4509239451842</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>95.5147990019349</v>
       </c>
       <c r="T5" t="n">
-        <v>118.0105762787989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27830,16 +27830,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>261.6743939305634</v>
       </c>
       <c r="V7" t="n">
-        <v>80.94049690661316</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8030061328213</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27906,10 +27906,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>11.38275980864074</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9.607352709647387</v>
+        <v>148.8788418911095</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31299,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31369,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31469,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32481,7 +32481,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>577.7882979947784</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -34938,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34947,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35026,19 +35026,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>490.1260733652761</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35102,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35254,7 +35254,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35409,7 +35409,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036775</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
